--- a/DataSet/CMPG323 EcoPower Logistics Data.xlsx
+++ b/DataSet/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itstudent\Documents\GitHub\CMPG-323-Project-4-36564567\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92669A55-4321-41D3-A474-1074C7778F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28230" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
     <sheet name="Orders" sheetId="3" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -732,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1950,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/DataSet/CMPG323 EcoPower Logistics Data.xlsx
+++ b/DataSet/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itstudent\Documents\GitHub\CMPG-323-Project-4-36564567\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92669A55-4321-41D3-A474-1074C7778F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75093942-D4D1-403B-8A57-97F0B9E9EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28230" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="3765" windowWidth="21000" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>

--- a/DataSet/CMPG323 EcoPower Logistics Data.xlsx
+++ b/DataSet/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itstudent\Documents\GitHub\CMPG-323-Project-4-36564567\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75093942-D4D1-403B-8A57-97F0B9E9EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E43A26B-80D8-46CF-898C-64781879C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="3765" windowWidth="21000" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
